--- a/测试.xlsx
+++ b/测试.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF0DCC6-4700-408A-AAE8-9F1C7E07456D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,30 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +70,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +347,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/测试.xlsx
+++ b/测试.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF0DCC6-4700-408A-AAE8-9F1C7E07456D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,17 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>孔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>wang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,7 +131,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -163,7 +166,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -340,25 +343,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/测试.xlsx
+++ b/测试.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA553DE5-56C6-42D1-B2AA-E919D4CBC6ED}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,8 +33,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,30 +344,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>

--- a/测试.xlsx
+++ b/测试.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA553DE5-56C6-42D1-B2AA-E919D4CBC6ED}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,8 +32,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,35 +343,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>789</v>
       </c>
     </row>
   </sheetData>
